--- a/static/excels/Reference.xlsx
+++ b/static/excels/Reference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idaca\DjangoProjects\wtp\static\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7409881-54BB-46DF-AD30-236A3B5F2A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C309BB3-2C35-4B43-AA37-3285372CF05A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5064,19 +5064,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5099,10 +5093,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5407,11 +5400,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P563"/>
+  <dimension ref="A1:N563"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5419,7 +5412,7 @@
     <col min="14" max="14" width="14.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>1653</v>
       </c>
@@ -5463,7 +5456,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5494,12 +5487,8 @@
       <c r="N2" t="s">
         <v>1667</v>
       </c>
-      <c r="P2" s="2" t="str">
-        <f>IF(K2="Yes", TRUE, IF(K2="No", FALSE, K2))</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5536,12 +5525,8 @@
       <c r="N3" t="s">
         <v>1667</v>
       </c>
-      <c r="P3" s="2" t="str">
-        <f t="shared" ref="P3:P7" si="0">IF(K3="Yes", TRUE, IF(K3="No", FALSE, K3))</f>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5578,12 +5563,8 @@
       <c r="N4" t="s">
         <v>1667</v>
       </c>
-      <c r="P4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5614,12 +5595,8 @@
       <c r="N5" t="s">
         <v>1667</v>
       </c>
-      <c r="P5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5650,12 +5627,8 @@
       <c r="N6" t="s">
         <v>1667</v>
       </c>
-      <c r="P6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5686,12 +5659,8 @@
       <c r="N7" t="s">
         <v>1667</v>
       </c>
-      <c r="P7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>False</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5729,7 +5698,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5761,7 +5730,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5799,7 +5768,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5831,7 +5800,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5872,7 +5841,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5904,7 +5873,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5945,7 +5914,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5986,7 +5955,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
